--- a/earthquake_relief.xlsx
+++ b/earthquake_relief.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,36 @@
         <v>2.3274749</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>سيارة</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>المساعدة الغذائية</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>48.8323, 2.4075</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.8323</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.4075</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/earthquake_relief.xlsx
+++ b/earthquake_relief.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,14 +588,66 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>48.8323</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.4075</t>
+      <c r="E6" t="n">
+        <v>48.8323</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.4075</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>شاحنة كبيرة</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>الرعاية الصحية</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>31.103499, -8.380761</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>31.103499</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-8.380761</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>سيارة</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>المساعدة الغذائية</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>31.119491 , -8.31603</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.119491</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-8.31603</t>
         </is>
       </c>
     </row>

--- a/earthquake_relief.xlsx
+++ b/earthquake_relief.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>location</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -478,176 +478,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31.0675165, -8.4323161</t>
+          <t>31.0896185, -8.4818423</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>31.0675165</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-8.4323161</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>شاحنة كبيرة</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>المأوى المؤقت</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>31.0896185, -8.4818423</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-8.4818423</v>
-      </c>
-      <c r="F3" t="n">
-        <v>31.0896185</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>سيارة رباعية الدفع</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>الكهرباء والطاقة</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>31.0896185, -8.4818423</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>31.0896185</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-8.4818423</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>سيارة رباعية الدفع</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>المساعدة الغذائية</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>48.7861406, 2.3274749</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>48.7861406</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.3274749</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>سيارة</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>المساعدة الغذائية</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>48.8323, 2.4075</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>48.8323</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.4075</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>شاحنة كبيرة</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>الرعاية الصحية</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>31.103499, -8.380761</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>31.103499</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-8.380761</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>سيارة</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>المساعدة الغذائية</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>31.119491 , -8.31603</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>31.119491</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-8.31603</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.0896185</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-8.4818423</t>
         </is>
       </c>
     </row>
